--- a/Screens/1 base/1.xlsx
+++ b/Screens/1 base/1.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:A128"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="true"/>
@@ -61,682 +61,642 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>3.4734201443179754e-17</v>
+        <v>5.0057148339712367e-17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1.5663637216914605e-16</v>
+        <v>1.1081629345582045e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.3139352480511251e-16</v>
+        <v>4.7465630585951857e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2.0622808238925587e-15</v>
+        <v>5.2739079276142953e-17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.8944918255400106e-15</v>
+        <v>8.8283365416670574e-17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3.5928331335607729e-15</v>
+        <v>2.6688063023307797e-16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1.0812446716031974e-13</v>
+        <v>1.0917906873455797e-16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1.0417175725742075e-14</v>
+        <v>1.7478619348008939e-16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.8490468980584299e-16</v>
+        <v>3.9247608027397575e-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>9.1686906609262799e-16</v>
+        <v>1.3270431557661391e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>2.8558331667981271e-15</v>
+        <v>4.9716951858961071e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>4.8674412218459122e-17</v>
+        <v>1.2815364866172347e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1.547902668781234e-12</v>
+        <v>1.2271601289214891e-14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>4.0376084251121454e-14</v>
+        <v>2.0306411779459452e-16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>2.7716789980756396e-18</v>
+        <v>1.1964020635366314e-13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>1.3389021609840162e-14</v>
+        <v>8.9532845295836154e-17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1.9553493095738062e-16</v>
+        <v>4.8657481100555887e-17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8.0873005047629432e-16</v>
+        <v>9.0336598694538726e-16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>7.973914244860381e-17</v>
+        <v>1.8369643971875591e-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>6.3608532717649929e-15</v>
+        <v>8.4150775870697232e-16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>2.638914408779389e-16</v>
+        <v>2.4406628249547965e-17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>2.3423270051079998e-16</v>
+        <v>4.2643479605226877e-15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>9.7179966103399188e-17</v>
+        <v>2.3741688374463462e-17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>1.0224137473198838e-15</v>
+        <v>3.4465239561280458e-17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>7.7499005813147045e-17</v>
+        <v>4.5685309796633149e-15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>3.5888347527703986e-16</v>
+        <v>2.0062548129770306e-15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>3.948995630640507e-15</v>
+        <v>2.678496818235398e-16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>2.7507068885960022e-16</v>
+        <v>1.772973177664888e-15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>2.0512702889581888e-17</v>
+        <v>1.7128440550424394e-12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>4.5690363101305976e-17</v>
+        <v>3.5925790010099163e-17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>4.155875524375802e-15</v>
+        <v>6.8778049857578595e-17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>6.2487382783871945e-16</v>
+        <v>6.1244815213274374e-14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>3.8344863560463557e-15</v>
+        <v>2.0064419751103584e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>2.7151892890178336e-16</v>
+        <v>1.013282303182664e-14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>9.9281728308873375e-14</v>
+        <v>1.621462430545523e-15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>3.6450489429315354e-15</v>
+        <v>9.1584447418835929e-14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1.0758413643718813e-14</v>
+        <v>2.8841485676355717e-15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>2.6630944345069056e-15</v>
+        <v>3.0683221837467778e-14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1.076566042403173e-16</v>
+        <v>5.0849918263469851e-17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>4.2832448504055718e-18</v>
+        <v>8.4126661712898361e-16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1.24822982304554e-16</v>
+        <v>1.3026355195086294e-11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1.3526995063313753e-16</v>
+        <v>5.7149982208880601e-16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>5.7797429188314589e-16</v>
+        <v>2.9094905922441996e-16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>4.3671835171557793e-13</v>
+        <v>3.6840894029672334e-17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1.0798337089016675e-14</v>
+        <v>4.7034089811626347e-16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1.2183754811020351e-17</v>
+        <v>2.6283169732733734e-16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1.409937381246166e-15</v>
+        <v>1.0590004298962215e-12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>5.265563742312203e-15</v>
+        <v>3.0028298797685453e-14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>2.6415412639300049e-15</v>
+        <v>1.1254231960546123e-14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1.8740982400484901e-16</v>
+        <v>1.9426304863328667e-17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>2.186695486351119e-12</v>
+        <v>1.089994997535396e-16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>5.0344229092695559e-13</v>
+        <v>6.3127618650215739e-16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>2.1956360287323714e-16</v>
+        <v>1.3529994852396772e-16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>4.4082315852831924e-17</v>
+        <v>1.6295859565190684e-12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1.3996503425291479e-16</v>
+        <v>1.2111330633497906e-17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1.3613930600506112e-15</v>
+        <v>1.9149218672220021e-14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1.8031957464098484e-15</v>
+        <v>1.4221661153451936e-15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>5.5852809993267456e-15</v>
+        <v>7.0161467889584268e-17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>4.273565209623837e-14</v>
+        <v>3.658275499756055e-17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1.2499266523482758e-18</v>
+        <v>1.5960396591359371e-16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>2.6785641171343513e-17</v>
+        <v>8.2392149242259104e-13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>2.2418098194430844e-15</v>
+        <v>2.1903058220965768e-15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>7.8654136857112631e-13</v>
+        <v>2.7727963307286212e-17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>4.1807924670878523e-15</v>
+        <v>7.3056105987542663e-16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>7.134720001205842e-14</v>
+        <v>8.0187652482819238e-19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>3.4341471859437821e-13</v>
+        <v>7.1190952915078498e-16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>3.9705396281186066e-14</v>
+        <v>4.1282363232821352e-16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1.6379534635180628e-15</v>
+        <v>1.3843038885389291e-13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>4.0193078695446532e-14</v>
+        <v>3.4974842796210432e-16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>2.2120469692915613e-16</v>
+        <v>5.980564288972802e-14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>8.2991525481924041e-17</v>
+        <v>1.4883124366232693e-16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>7.8588035107884706e-16</v>
+        <v>1.1675356902799273e-15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>1.2617324983230876e-17</v>
+        <v>1.3537200703445121e-15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>1.2460109448772956e-13</v>
+        <v>1.9755352323570517e-14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>2.7118612943002404e-14</v>
+        <v>6.7851153867007865e-18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>1.413913876203471e-16</v>
+        <v>4.5375337186808643e-16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>7.1412909016523626e-17</v>
+        <v>4.3741823166801342e-14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>3.8857530121595429e-16</v>
+        <v>8.2362723692282365e-16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>1.385971250177791e-16</v>
+        <v>1.2644199313102488e-15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>6.7633209730338924e-16</v>
+        <v>1.1356985900530357e-15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>3.4111814630110585e-15</v>
+        <v>1.2901297353389072e-16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>1.4459389715575603e-17</v>
+        <v>6.0412516765999287e-17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>1.4737942413827725e-18</v>
+        <v>6.9993052438106426e-17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>5.4191130252015796e-18</v>
+        <v>1.7344595115376898e-17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>1.4860258833486061e-16</v>
+        <v>7.0960661313192563e-15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>7.4680912091458193e-18</v>
+        <v>3.8741045208468972e-16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>5.2399395905600276e-14</v>
+        <v>2.2762970448992081e-15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>1.3474775141499722e-16</v>
+        <v>3.4214416322368087e-19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>3.7493540352467475e-17</v>
+        <v>2.72412852055444e-14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>1.3126177906195641e-16</v>
+        <v>3.3473864920532114e-16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>9.0954503780900911e-16</v>
+        <v>2.6421177481018109e-14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>3.2203591916553367e-14</v>
+        <v>1.2402579764123491e-15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>8.2402100380364298e-16</v>
+        <v>4.1017847344979994e-16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>1.7794001600075558e-15</v>
+        <v>5.2971806549778903e-15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>3.1430263075927838e-15</v>
+        <v>1.1802098524504076e-15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>1.6703646952918826e-17</v>
+        <v>5.9599239701278815e-15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>1.0190013832522424e-12</v>
+        <v>8.8093273383595215e-15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>2.3296449706267049e-17</v>
+        <v>6.1725227139565696e-16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>2.8205971733953152e-15</v>
+        <v>5.6798872310775478e-17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>3.2365079947405003e-18</v>
+        <v>1.812528573136145e-14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>1.2506154982930216e-16</v>
+        <v>1.462649043870772e-16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>1.4856477597320999e-15</v>
+        <v>7.6029190573939008e-16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>7.7473269422791962e-16</v>
+        <v>3.7719496947898696e-17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>5.3423459059547049e-18</v>
+        <v>1.4099808419045041e-14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>2.7420479487598126e-13</v>
+        <v>9.7332247286333568e-16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>1.0239607464085834e-12</v>
+        <v>4.7907964978819169e-16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>4.3468549153315613e-15</v>
+        <v>9.3175215854623596e-17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>6.6118039525475746e-17</v>
+        <v>1.1871314786705206e-18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>4.2889461473264847e-17</v>
+        <v>8.0941512867189371e-15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>5.1402195813397168e-16</v>
+        <v>3.8524175772903027e-13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>1.5339526191641707e-14</v>
+        <v>1.8959133754662624e-15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>1.0075469699839986e-14</v>
+        <v>4.3577769446340545e-16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>1.1762397199258662e-15</v>
+        <v>2.275164241214569e-15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>2.9371120161372027e-15</v>
+        <v>4.4866647424678024e-15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>1.5227752056285175e-14</v>
+        <v>4.4669426607819703e-16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>5.1664114654765185e-15</v>
+        <v>1.1576434765827979e-15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>1.6215416073047726e-16</v>
+        <v>4.94439725296424e-16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>1.2193364187973608e-16</v>
+        <v>8.4903180847374198e-17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1.0806963188747306e-15</v>
+        <v>1.3041740982054922e-14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>1.4972744128205853e-16</v>
+        <v>3.0382481706028829e-16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1.7534767397776413e-15</v>
+        <v>1.8721298738311779e-18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>1.3321617950940574e-14</v>
+        <v>1.8271937182613183e-14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>4.9660384998929484e-13</v>
+        <v>8.863135846182953e-18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>1.3033102815280417e-17</v>
+        <v>1.1382082157775245e-15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>9.5404722175192255e-20</v>
+        <v>9.6653068844991935e-12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>1.0001563427942358e-16</v>
+        <v>1.6114256890550161e-16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>2.0055822998526233e-16</v>
+        <v>1.0659307532455171e-16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>3.159061551577532e-18</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0">
-        <v>1.1711562708963098e-15</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0">
-        <v>2.8510586090803101e-15</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0">
-        <v>4.5841710458108412e-15</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="0">
-        <v>1.1467957112390842e-12</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0">
-        <v>1.553011934979917e-15</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0">
-        <v>7.4807863786457929e-15</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0">
-        <v>4.8596634886676099e-17</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0">
-        <v>9.0244408144276816e-15</v>
+        <v>2.2085740126593559e-14</v>
       </c>
     </row>
   </sheetData>
